--- a/TestData/SauceDemo_Credentials.xlsx
+++ b/TestData/SauceDemo_Credentials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2D012916-F12C-4EB9-8005-5BB048DA5797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{61B21FDF-3AFA-406F-8C66-731A84F75150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F69EEAB-BD96-43F5-8C16-03FB0AAA5EC9}"/>
   </bookViews>
@@ -32,19 +32,19 @@
     <t>standard_user</t>
   </si>
   <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>error_user</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
     <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>error_user</t>
-  </si>
-  <si>
-    <t>visual_user</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,39 +421,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
